--- a/Master Switch Enclosure Board/BOM/MasterSwitchEnclosureBoard_BOM.xlsx
+++ b/Master Switch Enclosure Board/BOM/MasterSwitchEnclosureBoard_BOM.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Box\School\Orgs\LHR\Schematics\Master Switch Enclosure Board\Master Switch Enclosure Board\Master Switch Enclosure Board\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE2788-E7C3-4B2C-8D9A-BD8161AC7AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5951DB7C-D998-45B9-889D-2D1422AF36B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="5" r:id="rId1"/>
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
+    <sheet name="JLCPCB" sheetId="1" r:id="rId3"/>
+    <sheet name="Mouser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="128">
   <si>
     <t>Designator</t>
   </si>
@@ -400,6 +402,24 @@
   </si>
   <si>
     <t>0603WAF4701T5E</t>
+  </si>
+  <si>
+    <t>TSMP resistors</t>
+  </si>
+  <si>
+    <t>15kΩ 355015KFT</t>
+  </si>
+  <si>
+    <t>R13,R14</t>
+  </si>
+  <si>
+    <t>355015KFT</t>
+  </si>
+  <si>
+    <t>279-355015KFT</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Holsworthy</t>
   </si>
 </sst>
 </file>
@@ -408,8 +428,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -916,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
@@ -924,9 +944,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="17" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="9" xfId="17" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="17" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -974,12 +996,104 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1035,25 +1149,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB63B3F-2509-49CC-9CF5-BFA4B60BDB75}" name="Table3" displayName="Table3" ref="A1:L24" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:L24" xr:uid="{6DB63B3F-2509-49CC-9CF5-BFA4B60BDB75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2899346E-D929-4D80-9000-2FB8140F78B5}" name="Table32" displayName="Table32" ref="A1:L25" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:L25" xr:uid="{2899346E-D929-4D80-9000-2FB8140F78B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L24">
     <sortCondition descending="1" ref="B1:B24"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{98F9744B-79DE-48E8-A7EB-0E169913D373}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{68615ED5-CA6C-4BBE-853A-4AAD7EB4ADAD}" name="Notes" dataDxfId="5" dataCellStyle="Explanatory Text"/>
-    <tableColumn id="3" xr3:uid="{8B8453DC-C771-41E2-9430-1B3B33C73996}" name="Name" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F147E6F3-EEA4-47AE-B2BD-A16472925E9F}" name="Designator"/>
-    <tableColumn id="6" xr3:uid="{9BED6F84-984F-4922-8B5E-C4DD336CAF87}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{4DBE13ED-D33E-4EF6-ABCB-BB9D4D1DECFE}" name="JLCPCB Designation"/>
-    <tableColumn id="8" xr3:uid="{34932D9E-ED7F-4E31-B2F6-0E186F2189CD}" name="Supplier"/>
-    <tableColumn id="9" xr3:uid="{9172AC2C-0505-4335-8BA0-AA5966D026F3}" name="Supplier Part #"/>
-    <tableColumn id="10" xr3:uid="{8C6323B4-4633-47E0-9597-83C49B088A7F}" name="Manufacturer"/>
-    <tableColumn id="11" xr3:uid="{A37670E6-050B-42AE-8488-B760121DAC2E}" name="Manufacturer Part #" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{6EE99978-D322-4635-9D71-44113441FCDB}" name="Price" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{422B03DF-C350-402E-88BB-0A296C4715E2}" name="Total Price" dataDxfId="0" dataCellStyle="Currency">
-      <calculatedColumnFormula>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{70C9D7D8-EA33-4001-9E82-C857ABB8477A}" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{04721A47-99BE-4D98-9CED-EDD24706BFED}" name="Notes" dataDxfId="21" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="3" xr3:uid="{3D36301D-AAAE-44A4-B88C-E07B9BFA0A79}" name="Name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{613A16B5-5BA5-4408-835F-D17B57EE6B36}" name="Designator"/>
+    <tableColumn id="6" xr3:uid="{4907EE29-5EC9-4DFC-9D8E-52A3680826BA}" name="Quantity" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{F21F42B2-BBDB-4411-B092-4F8A7ABDB4E5}" name="JLCPCB Designation"/>
+    <tableColumn id="8" xr3:uid="{61BED235-227B-4B00-AC1B-237555352427}" name="Supplier"/>
+    <tableColumn id="9" xr3:uid="{BA301E4B-6288-4C99-975C-BE07E972BC34}" name="Supplier Part #"/>
+    <tableColumn id="10" xr3:uid="{32A1FE99-1141-43F0-A387-9247E00556D6}" name="Manufacturer"/>
+    <tableColumn id="11" xr3:uid="{816220DD-171D-43AE-984A-28A9BC75191C}" name="Manufacturer Part #" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{8F8AF455-9BA5-4A90-8DB2-78242EAE22E3}" name="Price" dataDxfId="17" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{5C402840-6D38-4ADD-B702-1F775EA341CF}" name="Total Price" dataDxfId="16" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{107717FE-FC66-4C79-B46C-FF6AE269DB35}" name="Table323" displayName="Table323" ref="A1:L13" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:L13" xr:uid="{107717FE-FC66-4C79-B46C-FF6AE269DB35}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L13">
+    <sortCondition descending="1" ref="B1:B13"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{073111F1-BE6B-4AE4-B861-1461900F3FAB}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{21F9DB6B-57B1-4D71-8988-D49FC0379A08}" name="Notes" dataDxfId="13" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="3" xr3:uid="{1FC2A27C-13A4-4523-8D6F-979A8FB9D8A5}" name="Name" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{AF477934-BA75-41AD-AC48-992182FBDCBD}" name="Designator"/>
+    <tableColumn id="6" xr3:uid="{096D576F-B166-41A8-B6E5-A9524CCEA3A4}" name="Quantity" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{E6F32370-90BD-4FE7-B788-0A97C22ADC94}" name="JLCPCB Designation"/>
+    <tableColumn id="8" xr3:uid="{D4CA12C3-E8B3-4C8B-8CA8-64C1E1B6BA7C}" name="Supplier"/>
+    <tableColumn id="9" xr3:uid="{4E4D7BF0-682F-4B56-A876-599B2A878657}" name="Supplier Part #"/>
+    <tableColumn id="10" xr3:uid="{F2D17FBA-6ABB-4AAC-A408-440BCCC1C2F5}" name="Manufacturer"/>
+    <tableColumn id="11" xr3:uid="{7E2850A9-D4EF-4273-98EC-95DB8CFB64DF}" name="Manufacturer Part #" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{BA636136-0B74-4B4B-830D-2F807875DE31}" name="Price" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{CCCAD2DD-D99E-449B-BA9B-8ABA886E3AD6}" name="Total Price" dataDxfId="8" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65FBEFF4-A76B-451C-889F-D104832ED887}" name="Table324" displayName="Table324" ref="A1:L13" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:L13" xr:uid="{65FBEFF4-A76B-451C-889F-D104832ED887}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
+    <sortCondition descending="1" ref="B1:B12"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{675698A2-D787-43C8-92D3-0F87666CC19E}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D86567BC-AA93-4CA0-82EC-0C6E5B3341E9}" name="Notes" dataDxfId="5" dataCellStyle="Explanatory Text"/>
+    <tableColumn id="3" xr3:uid="{2BD903A0-3B1A-4A1E-9FEC-11A322BC95AC}" name="Name" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A7D15960-432C-4FD4-9F2C-743D8443BEF6}" name="Designator"/>
+    <tableColumn id="6" xr3:uid="{2D371F4B-A81A-49B7-A5C8-A4ADF9817DFA}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E90A2826-FB00-4D4E-A9F2-A58E8EF61CE3}" name="JLCPCB Designation"/>
+    <tableColumn id="8" xr3:uid="{F2B8495C-395B-4602-82C4-935B232FAB49}" name="Supplier"/>
+    <tableColumn id="9" xr3:uid="{2AC1C1D9-865D-441C-8DDB-E473FB35DF08}" name="Supplier Part #"/>
+    <tableColumn id="10" xr3:uid="{60E77715-1A8B-40FF-88C5-C0D3741BD627}" name="Manufacturer"/>
+    <tableColumn id="11" xr3:uid="{90B715F9-6665-457E-917F-5B2C18FD679A}" name="Manufacturer Part #" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7A0B5F01-0A50-4F92-AB72-8AE7957C3F01}" name="Price" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{A41CAE4E-9465-40CA-BDB0-77755E539F75}" name="Total Price" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1356,31 +1522,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC58751-3A05-4698-8EE0-CF72080C7F56}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -1453,7 +1618,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="L2" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
@@ -1492,7 +1657,7 @@
         <v>0.05</v>
       </c>
       <c r="L3" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -1531,7 +1696,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="L4" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -1570,7 +1735,7 @@
         <v>0.1</v>
       </c>
       <c r="L5" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.1</v>
       </c>
     </row>
@@ -1609,7 +1774,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="L6" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
@@ -1648,7 +1813,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L7" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1687,7 +1852,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="L8" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
@@ -1726,7 +1891,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="L9" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -1765,7 +1930,7 @@
         <v>3.22</v>
       </c>
       <c r="L10" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>3.22</v>
       </c>
     </row>
@@ -1804,7 +1969,7 @@
         <v>2.81</v>
       </c>
       <c r="L11" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>2.81</v>
       </c>
     </row>
@@ -1844,7 +2009,7 @@
         <v>3.8247</v>
       </c>
       <c r="L12" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>3.8247</v>
       </c>
     </row>
@@ -1883,7 +2048,7 @@
         <v>1E-3</v>
       </c>
       <c r="L13" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -1922,7 +2087,7 @@
         <v>0.15</v>
       </c>
       <c r="L14" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1961,7 +2126,7 @@
         <v>0.1</v>
       </c>
       <c r="L15" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2000,7 +2165,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="L16" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -2039,7 +2204,7 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -2078,7 +2243,7 @@
         <v>0.64</v>
       </c>
       <c r="L18" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1.28</v>
       </c>
     </row>
@@ -2114,7 +2279,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="L19" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -2153,7 +2318,7 @@
         <v>1E-3</v>
       </c>
       <c r="L20" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -2192,7 +2357,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="L21" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -2231,7 +2396,7 @@
         <v>1E-3</v>
       </c>
       <c r="L22" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1E-3</v>
       </c>
     </row>
@@ -2270,7 +2435,7 @@
         <v>1.6</v>
       </c>
       <c r="L23" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>1.6</v>
       </c>
     </row>
@@ -2309,65 +2474,100 @@
         <v>4.46</v>
       </c>
       <c r="L24" s="9">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
         <v>8.92</v>
       </c>
     </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="L25" s="9">
+        <f>Table32[[#This Row],[Price]]*Table32[[#This Row],[Quantity]]</f>
+        <v>3.48</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
-    <sortCondition ref="D2:D24"/>
-  </sortState>
-  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H24" r:id="rId1" xr:uid="{882B883E-ED6B-43DA-9B7E-8E8B084C4981}"/>
-    <hyperlink ref="J24" r:id="rId2" display="https://www.phoenixcontact.com/en-pc/products/pcb-terminal-block-mkds-3-4-508-1712805" xr:uid="{EE5B0349-7431-4C39-97E8-2277A33B256D}"/>
-    <hyperlink ref="J21" r:id="rId3" xr:uid="{064C7CA2-F3D8-4E0D-B63F-66256A6F18BD}"/>
-    <hyperlink ref="H21" r:id="rId4" xr:uid="{8071AA7A-10B0-46BC-B4FF-39F8BD704175}"/>
-    <hyperlink ref="J22" r:id="rId5" xr:uid="{172DD6DA-1A32-4BE3-92A0-FEA176D1ED1B}"/>
-    <hyperlink ref="H22" r:id="rId6" xr:uid="{51D8DCE1-34AD-4042-B66F-7010AB4EEB3B}"/>
-    <hyperlink ref="J11" r:id="rId7" xr:uid="{191A8B01-A9A5-474A-A8CB-8CD8565B9212}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{2F6A4811-1FE4-474D-8DC2-90349766DDB4}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{95947D49-4100-498A-8CE3-DB6FBF47655D}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{7DA53C6C-7251-465B-964C-D2DAA5B467F1}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{649118AD-FE64-4C06-A422-ECDA595391EB}"/>
-    <hyperlink ref="H10" r:id="rId12" xr:uid="{5711042F-E19E-4839-9BF7-7B6524153D98}"/>
-    <hyperlink ref="J13" r:id="rId13" xr:uid="{D9F0C32C-00A4-4EE6-B945-CD5C40DFDEAD}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{F33A0732-0859-40DC-9165-CBA1628B05E5}"/>
-    <hyperlink ref="H23" r:id="rId15" xr:uid="{136E44D4-7ED3-4BC3-B51D-4D3ECB04042C}"/>
-    <hyperlink ref="J23" r:id="rId16" xr:uid="{9815ACE6-A795-40D3-839D-7F5B2E9AC720}"/>
-    <hyperlink ref="H2" r:id="rId17" xr:uid="{7AC446F9-636C-4AEB-A715-ECB97C2D9384}"/>
-    <hyperlink ref="J2" r:id="rId18" xr:uid="{F98C4A8E-B757-459F-BBF8-9A40793575D7}"/>
-    <hyperlink ref="J3" r:id="rId19" xr:uid="{D4B8DF29-9C6E-4BD9-A10C-5F9BE1A4E0E0}"/>
-    <hyperlink ref="H3" r:id="rId20" xr:uid="{2CAD3DF9-3575-4429-8DED-96728BD7ABAD}"/>
-    <hyperlink ref="J4" r:id="rId21" xr:uid="{0518ADF4-75B5-4691-81C3-AFA065E5A1BC}"/>
-    <hyperlink ref="H4" r:id="rId22" xr:uid="{AA254FBA-0DB4-4013-9E08-4B08FE7E7111}"/>
-    <hyperlink ref="J8" r:id="rId23" xr:uid="{7D5F1E22-CB37-49B9-B928-DCDA9308DE6B}"/>
-    <hyperlink ref="H8" r:id="rId24" xr:uid="{2F228431-9092-49EA-B2AD-7EC517E9AE2E}"/>
-    <hyperlink ref="H9" r:id="rId25" xr:uid="{E940D3C8-9519-4586-A7A0-67AA2991A390}"/>
-    <hyperlink ref="J9" r:id="rId26" xr:uid="{8AAAB631-70B6-4C03-8700-B6CC9DDDC6C0}"/>
-    <hyperlink ref="H7" r:id="rId27" xr:uid="{2AB569DC-FD4F-4FED-AA03-77B0B264C7E1}"/>
-    <hyperlink ref="J7" r:id="rId28" xr:uid="{E0675C5C-38B9-4DD6-BDB1-9590E13A19FB}"/>
-    <hyperlink ref="H6" r:id="rId29" xr:uid="{6A995CFA-DF77-46EC-BED0-8F00DB66A355}"/>
-    <hyperlink ref="J6" r:id="rId30" xr:uid="{BA0C6F3E-CEAA-4992-8446-B29F89DE5268}"/>
-    <hyperlink ref="J5" r:id="rId31" xr:uid="{F3D5A8DF-DA69-4C2F-94F7-CE613DC9E262}"/>
-    <hyperlink ref="H5" r:id="rId32" xr:uid="{4FCA7325-58DF-4294-AF83-3FA5ADADEEE3}"/>
-    <hyperlink ref="J14" r:id="rId33" xr:uid="{9F287C99-9178-4C01-AFE2-9B1F0D9BC52B}"/>
-    <hyperlink ref="H14" r:id="rId34" xr:uid="{50D62756-8ADC-4671-943B-C55D85213F89}"/>
-    <hyperlink ref="H15" r:id="rId35" xr:uid="{DC49B133-55D6-478E-AB5F-811B462133C0}"/>
-    <hyperlink ref="J15" r:id="rId36" xr:uid="{C6DD5CCF-E8F0-44EB-AACA-15868EB5EF18}"/>
-    <hyperlink ref="H16" r:id="rId37" xr:uid="{FCFDA2E9-DC5C-4AE6-AAFB-1B263A279A86}"/>
-    <hyperlink ref="J16" r:id="rId38" xr:uid="{F744BF64-F69F-48ED-94BF-6EFE7BE4B9E3}"/>
-    <hyperlink ref="H17" r:id="rId39" xr:uid="{9A5854F3-FD65-4937-863A-82CBEEE4454B}"/>
-    <hyperlink ref="J17" r:id="rId40" xr:uid="{E718FD39-80EB-437D-B728-417049105202}"/>
-    <hyperlink ref="H18" r:id="rId41" xr:uid="{6DDFA8F5-6993-42D9-91E4-8CD9CE51D35A}"/>
-    <hyperlink ref="J18" r:id="rId42" xr:uid="{B478FF35-EC63-499E-A91A-18213CD14F57}"/>
-    <hyperlink ref="H19" r:id="rId43" xr:uid="{79943BE1-737D-428C-B82C-B1A17E177430}"/>
-    <hyperlink ref="J19" r:id="rId44" xr:uid="{13AED7A9-0FB0-4DA4-9107-97C1B507D26F}"/>
-    <hyperlink ref="H20" r:id="rId45" xr:uid="{D64CAC0B-F359-4331-B49C-84E2A2D7A0CA}"/>
-    <hyperlink ref="J20" r:id="rId46" xr:uid="{A8348C62-4CBD-4B05-84CC-2E940C7BF112}"/>
+    <hyperlink ref="H24" r:id="rId1" xr:uid="{0CE4E3FE-C703-47E6-9CC6-D7994C5E17D5}"/>
+    <hyperlink ref="J24" r:id="rId2" display="https://www.phoenixcontact.com/en-pc/products/pcb-terminal-block-mkds-3-4-508-1712805" xr:uid="{1096D082-B245-4532-83D8-511A73D09D2B}"/>
+    <hyperlink ref="J21" r:id="rId3" xr:uid="{1316BD19-527A-4678-89F5-D8E21F5FF04D}"/>
+    <hyperlink ref="H21" r:id="rId4" xr:uid="{FC696B19-36E2-47E5-BC3F-38671CE31543}"/>
+    <hyperlink ref="J22" r:id="rId5" xr:uid="{ACC88B30-CD96-4603-87BF-0803876F37EA}"/>
+    <hyperlink ref="H22" r:id="rId6" xr:uid="{EF0CEDFB-4693-4086-A35D-C8A503904654}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{537C8931-39E7-4B20-84DA-39FBB79955A9}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{18B8DCBC-4689-489B-8AD3-A8CD022B26D1}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{B2702371-6722-47FE-AFC2-D96990C38856}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{C85B8AA0-3987-488F-87A7-9D57B7854EF9}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{99B4D362-B064-4B3F-975F-4F859EDC74E6}"/>
+    <hyperlink ref="H10" r:id="rId12" xr:uid="{C79AE3DA-C670-4FE0-913B-7D2F0AED9A5A}"/>
+    <hyperlink ref="J13" r:id="rId13" xr:uid="{0E1AF803-E7C9-43C0-9552-12F81690A1C3}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{1B6976F4-B667-4F61-9A1A-A0A118F5087F}"/>
+    <hyperlink ref="H23" r:id="rId15" xr:uid="{281A38A7-C164-4EF1-A040-9340D3FF0F06}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{F9F60C5C-FA7F-4F0C-9D0E-5A7E79C2E7D7}"/>
+    <hyperlink ref="H2" r:id="rId17" xr:uid="{7DBBB4F5-8D4B-434E-927B-238F5E9FDFE6}"/>
+    <hyperlink ref="J2" r:id="rId18" xr:uid="{AE82AAA5-4CD3-4369-BA05-FEF303F6B36E}"/>
+    <hyperlink ref="J3" r:id="rId19" xr:uid="{50D356E6-B33D-4BD3-9CF7-6E448AC870CB}"/>
+    <hyperlink ref="H3" r:id="rId20" xr:uid="{BA7B507D-E89C-4A42-90CE-FBAB7FC53A58}"/>
+    <hyperlink ref="J4" r:id="rId21" xr:uid="{A257CE55-4E98-42F0-9AB3-A16DADBE4B73}"/>
+    <hyperlink ref="H4" r:id="rId22" xr:uid="{373C0013-F4D8-4693-9F8B-42D419E0A412}"/>
+    <hyperlink ref="J8" r:id="rId23" xr:uid="{31A60798-8A4D-4776-8653-770EF7F5156A}"/>
+    <hyperlink ref="H8" r:id="rId24" xr:uid="{3CF4E1AC-4140-4906-A623-81A3E7CDE7EE}"/>
+    <hyperlink ref="H9" r:id="rId25" xr:uid="{50C22365-EF38-4B99-9629-076ED1F32589}"/>
+    <hyperlink ref="J9" r:id="rId26" xr:uid="{4C415E8C-0B7F-47AD-AB1D-9E6FF3A1B3CB}"/>
+    <hyperlink ref="H7" r:id="rId27" xr:uid="{656789A6-66B0-41CB-9B68-BBD1BA31590B}"/>
+    <hyperlink ref="J7" r:id="rId28" xr:uid="{665D7949-3B59-493C-94C2-7A114FD76B98}"/>
+    <hyperlink ref="H6" r:id="rId29" xr:uid="{5037B3ED-F4FA-4C12-9F7F-DBFFA9CFF54E}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{2BDBFFEA-9116-4E6D-9525-AC549FC42B15}"/>
+    <hyperlink ref="J5" r:id="rId31" xr:uid="{7B4E5ED1-59BF-4DE9-B0C6-F1E187B01DB6}"/>
+    <hyperlink ref="H5" r:id="rId32" xr:uid="{EBCAA3B8-9CA2-4F74-9541-2B7C5FE1DCCB}"/>
+    <hyperlink ref="J14" r:id="rId33" xr:uid="{77000A9D-0862-442E-A215-347F69ECFFBB}"/>
+    <hyperlink ref="H14" r:id="rId34" xr:uid="{6E6E78A2-D750-48B6-90FC-CCB7420BF5E1}"/>
+    <hyperlink ref="H15" r:id="rId35" xr:uid="{6BCD5DF7-6071-4011-9CDE-C7230503C6E2}"/>
+    <hyperlink ref="J15" r:id="rId36" xr:uid="{0DA92956-2441-455F-905E-7749790BF716}"/>
+    <hyperlink ref="H16" r:id="rId37" xr:uid="{63AD9663-E900-4FA3-AE39-11B3855AB114}"/>
+    <hyperlink ref="J16" r:id="rId38" xr:uid="{EC083C41-BFCA-4871-97ED-C5D815B56E84}"/>
+    <hyperlink ref="H17" r:id="rId39" xr:uid="{F02EF10A-FB21-4A6E-AEF2-A988C0815F93}"/>
+    <hyperlink ref="J17" r:id="rId40" xr:uid="{8D169A02-A313-4E24-80E3-23D5D3612921}"/>
+    <hyperlink ref="H18" r:id="rId41" xr:uid="{632C57D3-92A1-49F3-9BC9-05235E4163D3}"/>
+    <hyperlink ref="J18" r:id="rId42" xr:uid="{A65F3B3A-3563-4054-BB85-01F96C90ACF3}"/>
+    <hyperlink ref="H19" r:id="rId43" xr:uid="{9F286CB3-22FE-4A4C-B164-4D3966E94F60}"/>
+    <hyperlink ref="J19" r:id="rId44" xr:uid="{D9181C9B-96E7-46B5-B9CE-1B44BBA8BDE3}"/>
+    <hyperlink ref="H20" r:id="rId45" xr:uid="{167775EE-B43B-4F5C-97D5-BABAAAA161D4}"/>
+    <hyperlink ref="J20" r:id="rId46" xr:uid="{159565F9-296A-4C61-8ADA-2779D203EB1D}"/>
+    <hyperlink ref="J25" r:id="rId47" xr:uid="{0BD7787D-31C0-4DA1-B429-BE98BCE54B22}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
   <tableParts count="1">
     <tablePart r:id="rId48"/>
   </tableParts>
@@ -2378,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC24E030-47EA-453A-AF92-31D98A375C5D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2392,13 +2592,1144 @@
       <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="11">
-        <f>SUM(Table3[Total Price])</f>
-        <v>22.489199999999997</v>
+      <c r="B1" s="10">
+        <f>SUM(Table32[Total Price])</f>
+        <v>25.969199999999997</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="L2" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="9">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L4" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9">
+        <f>0.8247+3</f>
+        <v>3.8247</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>3.8247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Table323[[#This Row],[Price]]*Table323[[#This Row],[Quantity]]</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="D2:D13"/>
+  </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J12" r:id="rId1" xr:uid="{E2C916F6-F013-4D65-8FDA-783D4C673010}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{4F8DBA45-BE98-45E5-9E58-7853C2DB25E4}"/>
+    <hyperlink ref="J13" r:id="rId3" xr:uid="{2BA48B05-7D1A-4C08-877E-BE4AB67BEB1E}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{3247B0D9-101A-44A2-B4E6-1D7D83A1500F}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{E77660FF-AD96-48D0-82FF-6BE53379EAC0}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{4DEBFFFD-90DE-46A4-AA1B-4985F553878B}"/>
+    <hyperlink ref="J10" r:id="rId7" xr:uid="{81E7356E-9A10-42E0-B18A-5A572598C4C3}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{4E76CEF5-DE77-4B73-9EBD-F872AB91B368}"/>
+    <hyperlink ref="H2" r:id="rId9" xr:uid="{05E7720A-B5FB-48BE-8CC0-18AF3F84E1C6}"/>
+    <hyperlink ref="J2" r:id="rId10" xr:uid="{EABF5B3A-E511-4BFA-A64C-848D373E06DE}"/>
+    <hyperlink ref="J3" r:id="rId11" xr:uid="{AE0872EA-1D28-4F97-A4ED-3B1CE539561C}"/>
+    <hyperlink ref="H3" r:id="rId12" xr:uid="{092E5E78-2FCB-48B5-A7FB-BFE53370403E}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{4186D954-0516-41DA-A991-DC6B0650D397}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{646665D2-A3FD-4275-A425-7C44CFFDBB35}"/>
+    <hyperlink ref="J7" r:id="rId15" xr:uid="{1627157E-342F-4F5E-B2FB-4CC8D0CEE5C3}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{C4CA74F2-3509-47ED-BE82-E0D549943124}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{4C0DB1CC-4B3E-43D1-B561-38B780B8C077}"/>
+    <hyperlink ref="J8" r:id="rId18" xr:uid="{39B4D2EB-5636-4A4F-A16E-FC02AA5F0D52}"/>
+    <hyperlink ref="H6" r:id="rId19" xr:uid="{36C8148B-0970-4438-AB03-D17B4A4338CC}"/>
+    <hyperlink ref="J6" r:id="rId20" xr:uid="{E7C6FE8E-DD20-445F-AC22-F221FD0D23D3}"/>
+    <hyperlink ref="H5" r:id="rId21" xr:uid="{228B9353-1B44-46CE-A0F4-35D3F2A6C8F7}"/>
+    <hyperlink ref="J5" r:id="rId22" xr:uid="{BD10FE89-0A1F-423F-BFEE-D0DC9FE4A464}"/>
+    <hyperlink ref="H11" r:id="rId23" xr:uid="{4E82E7C3-7FB1-4216-A5CF-8FFAC963E740}"/>
+    <hyperlink ref="J11" r:id="rId24" xr:uid="{3BA5224E-4CFE-4ED5-B614-81D98D106599}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
+  <tableParts count="1">
+    <tablePart r:id="rId26"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4430EF11-362F-4A37-B948-43B21520846D}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3.22</v>
+      </c>
+      <c r="L3" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2.81</v>
+      </c>
+      <c r="L4" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L7" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="L8" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="L9" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L10" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="L11" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1712805</v>
+      </c>
+      <c r="K12" s="9">
+        <v>4.46</v>
+      </c>
+      <c r="L12" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1.74</v>
+      </c>
+      <c r="L13" s="9">
+        <f>Table324[[#This Row],[Price]]*Table324[[#This Row],[Quantity]]</f>
+        <v>3.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{B8B7C4F8-E867-4906-AF6D-31F677E33058}"/>
+    <hyperlink ref="J12" r:id="rId2" display="https://www.phoenixcontact.com/en-pc/products/pcb-terminal-block-mkds-3-4-508-1712805" xr:uid="{C434AAAC-B72D-41B6-BADE-4C995DDC5710}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{60CF9A3E-087E-46AD-AA06-4AAD13FC2931}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{B114F49B-ECC2-421E-97D3-6568A3CF0474}"/>
+    <hyperlink ref="J3" r:id="rId5" xr:uid="{25E2167D-71D9-48ED-B85A-078F7D4C7BF3}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{3987FEF7-B2CA-4193-868A-74D2033DC8FD}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{5706FF03-87DB-43C2-BC01-F74F47E3BFD0}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{15E329E0-BCE9-428C-9527-2245789B423B}"/>
+    <hyperlink ref="J2" r:id="rId9" xr:uid="{0567EF92-5009-4B14-BF69-7C5CEFAEA4A3}"/>
+    <hyperlink ref="H2" r:id="rId10" xr:uid="{0E9B9994-67B1-4278-A3C6-B00413224CA8}"/>
+    <hyperlink ref="J5" r:id="rId11" xr:uid="{C2A71451-0F52-4129-8508-D36A6745C314}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{907D73EC-E56E-4E2C-B36A-AEEF3CA41156}"/>
+    <hyperlink ref="H6" r:id="rId13" xr:uid="{7638FF95-5083-4AA6-A62C-0A4391EB99F7}"/>
+    <hyperlink ref="J6" r:id="rId14" xr:uid="{865CE323-467A-4485-BC69-76B4B873E823}"/>
+    <hyperlink ref="H7" r:id="rId15" xr:uid="{8E84E772-DBFA-4440-B352-C18484662567}"/>
+    <hyperlink ref="J7" r:id="rId16" xr:uid="{A751A760-C428-4FF2-BBAA-3A48B437DE50}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{AF057F61-863E-4C4D-97CC-C289F41B89E1}"/>
+    <hyperlink ref="J8" r:id="rId18" xr:uid="{21BA47D7-C65B-4B29-B54F-BC32AA12159B}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{CB7B1714-1817-4F53-BB12-2F4DE10C98F0}"/>
+    <hyperlink ref="J9" r:id="rId20" xr:uid="{BAA49B23-93E5-419C-9F75-7A468F8AFC65}"/>
+    <hyperlink ref="H10" r:id="rId21" xr:uid="{8662CEDF-6539-403F-A1E8-76E44B51CC1F}"/>
+    <hyperlink ref="J10" r:id="rId22" xr:uid="{8348F73B-BC21-4B25-992F-1282BFEDA624}"/>
+    <hyperlink ref="J13" r:id="rId23" xr:uid="{1EDA3426-7B75-4A34-93A9-E8FB3591AA64}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId24"/>
+  </tableParts>
+</worksheet>
 </file>